--- a/uploads/importexcel/akun.xlsx
+++ b/uploads/importexcel/akun.xlsx
@@ -71,18 +71,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,10 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +391,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -409,13 +402,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
